--- a/src/main/resources/excel_backup/1 Slang.xlsx
+++ b/src/main/resources/excel_backup/1 Slang.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="1.1 Slang" sheetId="1" state="visible" r:id="rId3"/>
@@ -865,7 +865,7 @@
   </sheetPr>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1004,7 +1004,7 @@
   </sheetPr>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1143,7 +1143,7 @@
   </sheetPr>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1282,14 +1282,14 @@
   </sheetPr>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="46.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="46.54"/>
   </cols>
   <sheetData>
@@ -1297,7 +1297,7 @@
       <c r="A1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1308,7 +1308,7 @@
       <c r="A2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1319,7 +1319,7 @@
       <c r="A3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1330,7 +1330,7 @@
       <c r="A4" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1341,7 +1341,7 @@
       <c r="A5" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1352,7 +1352,7 @@
       <c r="A6" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1363,7 +1363,7 @@
       <c r="A7" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1374,7 +1374,7 @@
       <c r="A8" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1385,7 +1385,7 @@
       <c r="A9" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1396,7 +1396,7 @@
       <c r="A10" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1421,7 +1421,7 @@
   </sheetPr>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1560,7 +1560,7 @@
   </sheetPr>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -1699,7 +1699,7 @@
   </sheetPr>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1808,7 +1808,7 @@
   </sheetPr>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
